--- a/DM_standard.xlsx
+++ b/DM_standard.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Mitarbeiter\Henninger, Dirk\Allgemein\Studenten\Jihad\!DM_Converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Mitarbeiter\Henninger, Dirk\Allgemein\Studenten\Jihad\!DM_Converter\dmconverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="945" windowWidth="27795" windowHeight="13515" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="945" windowWidth="27795" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="FeriSpec" sheetId="10" r:id="rId1"/>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DM_standard.xlsx
+++ b/DM_standard.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Tabelle1" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="FeriTable1">Tabelle1!$A$1:$B$359</definedName>
+    <definedName name="FeriTable1">Tabelle1!$A$1:$B$360</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="410">
   <si>
     <t>TableSpec</t>
   </si>
@@ -1250,6 +1250,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Sep'20</t>
   </si>
 </sst>
 </file>
@@ -1814,11 +1817,12 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2016,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,7 +2925,7 @@
         <v>160</v>
       </c>
       <c r="B112" s="1">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2933,7 @@
         <v>161</v>
       </c>
       <c r="B113" s="1">
-        <v>-5.7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2941,7 @@
         <v>162</v>
       </c>
       <c r="B114" s="1">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2949,7 @@
         <v>163</v>
       </c>
       <c r="B115" s="1">
-        <v>-3.1</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2957,7 @@
         <v>164</v>
       </c>
       <c r="B116" s="1">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,7 +2965,7 @@
         <v>165</v>
       </c>
       <c r="B117" s="1">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +2973,7 @@
         <v>166</v>
       </c>
       <c r="B118" s="1">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +2981,7 @@
         <v>167</v>
       </c>
       <c r="B119" s="1">
-        <v>-4.8</v>
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +2989,7 @@
         <v>168</v>
       </c>
       <c r="B120" s="1">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +2997,7 @@
         <v>169</v>
       </c>
       <c r="B121" s="1">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3005,7 @@
         <v>170</v>
       </c>
       <c r="B122" s="1">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3013,7 @@
         <v>171</v>
       </c>
       <c r="B123" s="1">
-        <v>-10.4</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3021,7 @@
         <v>172</v>
       </c>
       <c r="B124" s="1">
-        <v>-7.7</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3029,7 @@
         <v>173</v>
       </c>
       <c r="B125" s="1">
-        <v>-9.9</v>
+        <v>-10.199999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,7 +3037,7 @@
         <v>174</v>
       </c>
       <c r="B126" s="1">
-        <v>-13.8</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3041,7 +3045,7 @@
         <v>175</v>
       </c>
       <c r="B127" s="1">
-        <v>-15.2</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3053,7 @@
         <v>176</v>
       </c>
       <c r="B128" s="1">
-        <v>-15.1</v>
+        <v>-15.3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3057,7 +3061,7 @@
         <v>177</v>
       </c>
       <c r="B129" s="1">
-        <v>-14.9</v>
+        <v>-14.8</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,7 +3069,7 @@
         <v>178</v>
       </c>
       <c r="B130" s="1">
-        <v>-16.2</v>
+        <v>-16.100000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3077,7 @@
         <v>179</v>
       </c>
       <c r="B131" s="1">
-        <v>-16.600000000000001</v>
+        <v>-16.399999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3085,7 @@
         <v>180</v>
       </c>
       <c r="B132" s="1">
-        <v>-32.200000000000003</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3093,7 @@
         <v>181</v>
       </c>
       <c r="B133" s="1">
-        <v>-33.200000000000003</v>
+        <v>-33.299999999999997</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,7 +3101,7 @@
         <v>182</v>
       </c>
       <c r="B134" s="1">
-        <v>-31.1</v>
+        <v>-31.2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3105,7 +3109,7 @@
         <v>183</v>
       </c>
       <c r="B135" s="1">
-        <v>-29.4</v>
+        <v>-29.1</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3113,7 +3117,7 @@
         <v>184</v>
       </c>
       <c r="B136" s="1">
-        <v>-28.5</v>
+        <v>-28.7</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3121,7 +3125,7 @@
         <v>185</v>
       </c>
       <c r="B137" s="1">
-        <v>-21.6</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3129,7 +3133,7 @@
         <v>186</v>
       </c>
       <c r="B138" s="1">
-        <v>-20.7</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,7 +3141,7 @@
         <v>187</v>
       </c>
       <c r="B139" s="1">
-        <v>-20.9</v>
+        <v>-20.7</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3149,7 @@
         <v>188</v>
       </c>
       <c r="B140" s="1">
-        <v>-16.7</v>
+        <v>-16.899999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3153,7 +3157,7 @@
         <v>189</v>
       </c>
       <c r="B141" s="1">
-        <v>-21.3</v>
+        <v>-21.2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,7 +3165,7 @@
         <v>190</v>
       </c>
       <c r="B142" s="1">
-        <v>-21.9</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +3173,7 @@
         <v>191</v>
       </c>
       <c r="B143" s="1">
-        <v>-31.4</v>
+        <v>-31.2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3181,7 @@
         <v>192</v>
       </c>
       <c r="B144" s="1">
-        <v>-19.899999999999999</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3197,7 @@
         <v>194</v>
       </c>
       <c r="B146" s="1">
-        <v>-19.399999999999999</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +3205,7 @@
         <v>195</v>
       </c>
       <c r="B147" s="1">
-        <v>-23.1</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3209,7 +3213,7 @@
         <v>196</v>
       </c>
       <c r="B148" s="1">
-        <v>-20.3</v>
+        <v>-20.399999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3217,7 +3221,7 @@
         <v>197</v>
       </c>
       <c r="B149" s="1">
-        <v>-20.8</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,7 +3229,7 @@
         <v>198</v>
       </c>
       <c r="B150" s="1">
-        <v>-23.5</v>
+        <v>-23.7</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3233,7 +3237,7 @@
         <v>199</v>
       </c>
       <c r="B151" s="1">
-        <v>-28.9</v>
+        <v>-28.7</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3241,7 +3245,7 @@
         <v>200</v>
       </c>
       <c r="B152" s="1">
-        <v>-31.8</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3249,7 +3253,7 @@
         <v>201</v>
       </c>
       <c r="B153" s="1">
-        <v>-29.7</v>
+        <v>-29.6</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,7 +3261,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="1">
-        <v>-33</v>
+        <v>-32.9</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3265,7 +3269,7 @@
         <v>203</v>
       </c>
       <c r="B155" s="1">
-        <v>-32.299999999999997</v>
+        <v>-32.200000000000003</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3277,7 @@
         <v>204</v>
       </c>
       <c r="B156" s="1">
-        <v>-31</v>
+        <v>-30.9</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3285,7 @@
         <v>205</v>
       </c>
       <c r="B157" s="1">
-        <v>-27.5</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3289,7 +3293,7 @@
         <v>206</v>
       </c>
       <c r="B158" s="1">
-        <v>-27.4</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3301,7 @@
         <v>207</v>
       </c>
       <c r="B159" s="1">
-        <v>-26.9</v>
+        <v>-26.7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3305,7 +3309,7 @@
         <v>208</v>
       </c>
       <c r="B160" s="1">
-        <v>-24.5</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +3325,7 @@
         <v>210</v>
       </c>
       <c r="B162" s="1">
-        <v>-24</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3333,7 @@
         <v>211</v>
       </c>
       <c r="B163" s="1">
-        <v>-20.399999999999999</v>
+        <v>-20.2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3349,7 @@
         <v>213</v>
       </c>
       <c r="B165" s="1">
-        <v>-18.100000000000001</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,7 +3373,7 @@
         <v>216</v>
       </c>
       <c r="B168" s="1">
-        <v>-16.399999999999999</v>
+        <v>-16.3</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,7 +3389,7 @@
         <v>218</v>
       </c>
       <c r="B170" s="1">
-        <v>-18</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,7 +3397,7 @@
         <v>219</v>
       </c>
       <c r="B171" s="1">
-        <v>-19.5</v>
+        <v>-19.399999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3429,7 @@
         <v>223</v>
       </c>
       <c r="B175" s="1">
-        <v>-31.7</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +3453,7 @@
         <v>226</v>
       </c>
       <c r="B178" s="1">
-        <v>-28.3</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,7 +3461,7 @@
         <v>227</v>
       </c>
       <c r="B179" s="1">
-        <v>-21.5</v>
+        <v>-21.6</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3465,7 +3469,7 @@
         <v>228</v>
       </c>
       <c r="B180" s="1">
-        <v>-21.9</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,7 +3485,7 @@
         <v>230</v>
       </c>
       <c r="B182" s="1">
-        <v>-16.899999999999999</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3509,7 @@
         <v>233</v>
       </c>
       <c r="B185" s="1">
-        <v>-12.2</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,7 +3517,7 @@
         <v>234</v>
       </c>
       <c r="B186" s="1">
-        <v>-8.1999999999999993</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,7 +3525,7 @@
         <v>235</v>
       </c>
       <c r="B187" s="1">
-        <v>-4.3</v>
+        <v>-4.0999999999999996</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3529,7 +3533,7 @@
         <v>236</v>
       </c>
       <c r="B188" s="1">
-        <v>-7</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +3541,7 @@
         <v>237</v>
       </c>
       <c r="B189" s="1">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3549,7 @@
         <v>238</v>
       </c>
       <c r="B190" s="1">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3557,7 @@
         <v>239</v>
       </c>
       <c r="B191" s="1">
-        <v>-4.9000000000000004</v>
+        <v>-5.0999999999999996</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3565,7 @@
         <v>240</v>
       </c>
       <c r="B192" s="1">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,7 +3573,7 @@
         <v>241</v>
       </c>
       <c r="B193" s="1">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,7 +3589,7 @@
         <v>243</v>
       </c>
       <c r="B195" s="1">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3597,7 @@
         <v>244</v>
       </c>
       <c r="B196" s="1">
-        <v>-8.4</v>
+        <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3605,7 @@
         <v>245</v>
       </c>
       <c r="B197" s="1">
-        <v>-2.5</v>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3613,7 @@
         <v>246</v>
       </c>
       <c r="B198" s="1">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3621,7 @@
         <v>247</v>
       </c>
       <c r="B199" s="1">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +3629,7 @@
         <v>248</v>
       </c>
       <c r="B200" s="1">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3637,7 @@
         <v>249</v>
       </c>
       <c r="B201" s="1">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3645,7 @@
         <v>250</v>
       </c>
       <c r="B202" s="1">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3653,7 @@
         <v>251</v>
       </c>
       <c r="B203" s="1">
-        <v>-4.2</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3677,7 @@
         <v>254</v>
       </c>
       <c r="B206" s="1">
-        <v>-9.9</v>
+        <v>-9.8000000000000007</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3685,7 @@
         <v>255</v>
       </c>
       <c r="B207" s="1">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3693,7 @@
         <v>256</v>
       </c>
       <c r="B208" s="1">
-        <v>-9.9</v>
+        <v>-9.6999999999999993</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3701,7 @@
         <v>257</v>
       </c>
       <c r="B209" s="1">
-        <v>-13</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3709,7 @@
         <v>258</v>
       </c>
       <c r="B210" s="1">
-        <v>-11.9</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3717,7 @@
         <v>259</v>
       </c>
       <c r="B211" s="1">
-        <v>-20.5</v>
+        <v>-20.399999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3725,7 @@
         <v>260</v>
       </c>
       <c r="B212" s="1">
-        <v>-15.3</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3733,7 @@
         <v>261</v>
       </c>
       <c r="B213" s="1">
-        <v>-19.5</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3741,7 @@
         <v>262</v>
       </c>
       <c r="B214" s="1">
-        <v>-20.2</v>
+        <v>-20.399999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3749,7 @@
         <v>263</v>
       </c>
       <c r="B215" s="1">
-        <v>-24.9</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3757,7 @@
         <v>264</v>
       </c>
       <c r="B216" s="1">
-        <v>-28.7</v>
+        <v>-28.9</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3765,7 @@
         <v>265</v>
       </c>
       <c r="B217" s="1">
-        <v>-32.799999999999997</v>
+        <v>-32.9</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3781,7 @@
         <v>267</v>
       </c>
       <c r="B219" s="1">
-        <v>-51.2</v>
+        <v>-51.1</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +3789,7 @@
         <v>268</v>
       </c>
       <c r="B220" s="1">
-        <v>-57.2</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3797,7 @@
         <v>269</v>
       </c>
       <c r="B221" s="1">
-        <v>-65.7</v>
+        <v>-65.3</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +3805,7 @@
         <v>270</v>
       </c>
       <c r="B222" s="1">
-        <v>-66.5</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +3813,7 @@
         <v>271</v>
       </c>
       <c r="B223" s="1">
-        <v>-65.5</v>
+        <v>-65.3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3821,7 @@
         <v>272</v>
       </c>
       <c r="B224" s="1">
-        <v>-67.400000000000006</v>
+        <v>-67.5</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3829,7 @@
         <v>273</v>
       </c>
       <c r="B225" s="1">
-        <v>-64.7</v>
+        <v>-64.8</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3837,7 @@
         <v>274</v>
       </c>
       <c r="B226" s="1">
-        <v>-62.5</v>
+        <v>-62.7</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3841,7 +3845,7 @@
         <v>275</v>
       </c>
       <c r="B227" s="1">
-        <v>-55.7</v>
+        <v>-56.2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3853,7 @@
         <v>276</v>
       </c>
       <c r="B228" s="1">
-        <v>-55.8</v>
+        <v>-55.9</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3857,7 +3861,7 @@
         <v>277</v>
       </c>
       <c r="B229" s="1">
-        <v>-55.2</v>
+        <v>-55.3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3881,7 +3885,7 @@
         <v>280</v>
       </c>
       <c r="B232" s="1">
-        <v>-44.2</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +3893,7 @@
         <v>281</v>
       </c>
       <c r="B233" s="1">
-        <v>-40.700000000000003</v>
+        <v>-40.4</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +3901,7 @@
         <v>282</v>
       </c>
       <c r="B234" s="1">
-        <v>-39.700000000000003</v>
+        <v>-39.299999999999997</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,7 +3917,7 @@
         <v>284</v>
       </c>
       <c r="B236" s="1">
-        <v>-28.9</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3921,7 +3925,7 @@
         <v>285</v>
       </c>
       <c r="B237" s="1">
-        <v>-27.9</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3929,7 +3933,7 @@
         <v>286</v>
       </c>
       <c r="B238" s="1">
-        <v>-27</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,7 +3941,7 @@
         <v>287</v>
       </c>
       <c r="B239" s="1">
-        <v>-22.7</v>
+        <v>-23.1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3945,7 +3949,7 @@
         <v>288</v>
       </c>
       <c r="B240" s="1">
-        <v>-21.7</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,7 +3981,7 @@
         <v>292</v>
       </c>
       <c r="B244" s="1">
-        <v>-11.6</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -3985,7 +3989,7 @@
         <v>293</v>
       </c>
       <c r="B245" s="1">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +3997,7 @@
         <v>294</v>
       </c>
       <c r="B246" s="1">
-        <v>-10.9</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4001,7 +4005,7 @@
         <v>295</v>
       </c>
       <c r="B247" s="1">
-        <v>-8.6</v>
+        <v>-8.6999999999999993</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4021,7 @@
         <v>297</v>
       </c>
       <c r="B249" s="1">
-        <v>-15.3</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -4033,7 +4037,7 @@
         <v>299</v>
       </c>
       <c r="B251" s="1">
-        <v>-14.4</v>
+        <v>-14.7</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -4041,7 +4045,7 @@
         <v>300</v>
       </c>
       <c r="B252" s="1">
-        <v>-19.399999999999999</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4049,7 +4053,7 @@
         <v>301</v>
       </c>
       <c r="B253" s="1">
-        <v>-21.8</v>
+        <v>-21.7</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4057,7 +4061,7 @@
         <v>302</v>
       </c>
       <c r="B254" s="1">
-        <v>-22.6</v>
+        <v>-22.5</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4081,7 +4085,7 @@
         <v>305</v>
       </c>
       <c r="B257" s="1">
-        <v>-27.3</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4089,7 +4093,7 @@
         <v>306</v>
       </c>
       <c r="B258" s="1">
-        <v>-28.8</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -4097,7 +4101,7 @@
         <v>307</v>
       </c>
       <c r="B259" s="1">
-        <v>-29.3</v>
+        <v>-29.4</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -4113,7 +4117,7 @@
         <v>309</v>
       </c>
       <c r="B261" s="1">
-        <v>-24.1</v>
+        <v>-24.2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -4129,7 +4133,7 @@
         <v>311</v>
       </c>
       <c r="B263" s="1">
-        <v>-24</v>
+        <v>-24.2</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -4137,7 +4141,7 @@
         <v>312</v>
       </c>
       <c r="B264" s="1">
-        <v>-26.8</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -4145,7 +4149,7 @@
         <v>313</v>
       </c>
       <c r="B265" s="1">
-        <v>-29.6</v>
+        <v>-29.5</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,7 +4181,7 @@
         <v>317</v>
       </c>
       <c r="B269" s="1">
-        <v>-29.7</v>
+        <v>-29.5</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4189,7 @@
         <v>318</v>
       </c>
       <c r="B270" s="1">
-        <v>-31.3</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4197,7 @@
         <v>319</v>
       </c>
       <c r="B271" s="1">
-        <v>-27.1</v>
+        <v>-27.2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4213,7 @@
         <v>321</v>
       </c>
       <c r="B273" s="1">
-        <v>-10.5</v>
+        <v>-10.6</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -4217,7 +4221,7 @@
         <v>322</v>
       </c>
       <c r="B274" s="1">
-        <v>-13.3</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4237,7 @@
         <v>324</v>
       </c>
       <c r="B276" s="1">
-        <v>-10.1</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4253,7 @@
         <v>326</v>
       </c>
       <c r="B278" s="1">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4269,7 @@
         <v>328</v>
       </c>
       <c r="B280" s="1">
-        <v>-12.9</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4277,7 @@
         <v>329</v>
       </c>
       <c r="B281" s="1">
-        <v>-12.9</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4285,7 @@
         <v>330</v>
       </c>
       <c r="B282" s="1">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4293,7 @@
         <v>331</v>
       </c>
       <c r="B283" s="1">
-        <v>-12.1</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,7 +4301,7 @@
         <v>332</v>
       </c>
       <c r="B284" s="1">
-        <v>-14</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4317,7 @@
         <v>334</v>
       </c>
       <c r="B286" s="1">
-        <v>-14</v>
+        <v>-13.9</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4321,7 +4325,7 @@
         <v>335</v>
       </c>
       <c r="B287" s="1">
-        <v>-14.6</v>
+        <v>-14.3</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -4329,7 +4333,7 @@
         <v>336</v>
       </c>
       <c r="B288" s="1">
-        <v>-16.3</v>
+        <v>-16.600000000000001</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -4337,7 +4341,7 @@
         <v>337</v>
       </c>
       <c r="B289" s="1">
-        <v>-18.5</v>
+        <v>-18.600000000000001</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -4345,7 +4349,7 @@
         <v>338</v>
       </c>
       <c r="B290" s="1">
-        <v>-18.5</v>
+        <v>-18.600000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -4353,7 +4357,7 @@
         <v>339</v>
       </c>
       <c r="B291" s="1">
-        <v>-19.600000000000001</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -4369,7 +4373,7 @@
         <v>341</v>
       </c>
       <c r="B293" s="1">
-        <v>-19.100000000000001</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4385,7 +4389,7 @@
         <v>343</v>
       </c>
       <c r="B295" s="1">
-        <v>-10.6</v>
+        <v>-10.7</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4393,7 +4397,7 @@
         <v>344</v>
       </c>
       <c r="B296" s="1">
-        <v>-11.8</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4401,7 +4405,7 @@
         <v>345</v>
       </c>
       <c r="B297" s="1">
-        <v>-13</v>
+        <v>-12.9</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4409,7 +4413,7 @@
         <v>346</v>
       </c>
       <c r="B298" s="1">
-        <v>-11.1</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4417,7 +4421,7 @@
         <v>347</v>
       </c>
       <c r="B299" s="1">
-        <v>-12.8</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4425,7 +4429,7 @@
         <v>348</v>
       </c>
       <c r="B300" s="1">
-        <v>-13.5</v>
+        <v>-13.8</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4433,7 +4437,7 @@
         <v>349</v>
       </c>
       <c r="B301" s="1">
-        <v>-10.5</v>
+        <v>-10.7</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -4441,7 +4445,7 @@
         <v>350</v>
       </c>
       <c r="B302" s="1">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4449,7 +4453,7 @@
         <v>351</v>
       </c>
       <c r="B303" s="1">
-        <v>-11.6</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4457,7 +4461,7 @@
         <v>352</v>
       </c>
       <c r="B304" s="1">
-        <v>-16</v>
+        <v>-16.100000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4473,7 +4477,7 @@
         <v>354</v>
       </c>
       <c r="B306" s="1">
-        <v>-16.399999999999999</v>
+        <v>-16.600000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -4481,7 +4485,7 @@
         <v>355</v>
       </c>
       <c r="B307" s="1">
-        <v>-17</v>
+        <v>-17.100000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4489,7 +4493,7 @@
         <v>356</v>
       </c>
       <c r="B308" s="1">
-        <v>-16.5</v>
+        <v>-16.100000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4497,7 +4501,7 @@
         <v>357</v>
       </c>
       <c r="B309" s="1">
-        <v>-16.399999999999999</v>
+        <v>-16.100000000000001</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4505,7 +4509,7 @@
         <v>358</v>
       </c>
       <c r="B310" s="1">
-        <v>-12.5</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4513,7 +4517,7 @@
         <v>359</v>
       </c>
       <c r="B311" s="1">
-        <v>-15.4</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4521,7 +4525,7 @@
         <v>360</v>
       </c>
       <c r="B312" s="1">
-        <v>-16.100000000000001</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4529,7 +4533,7 @@
         <v>361</v>
       </c>
       <c r="B313" s="1">
-        <v>-13.2</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4537,7 +4541,7 @@
         <v>362</v>
       </c>
       <c r="B314" s="1">
-        <v>-15.9</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4545,7 +4549,7 @@
         <v>363</v>
       </c>
       <c r="B315" s="1">
-        <v>-13</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4553,7 +4557,7 @@
         <v>364</v>
       </c>
       <c r="B316" s="1">
-        <v>-13.4</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4561,7 +4565,7 @@
         <v>365</v>
       </c>
       <c r="B317" s="1">
-        <v>-8.5</v>
+        <v>-8.8000000000000007</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -4569,7 +4573,7 @@
         <v>366</v>
       </c>
       <c r="B318" s="1">
-        <v>-5.0999999999999996</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4585,7 +4589,7 @@
         <v>368</v>
       </c>
       <c r="B320" s="1">
-        <v>-7.9</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4593,7 +4597,7 @@
         <v>369</v>
       </c>
       <c r="B321" s="1">
-        <v>-2.6</v>
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4601,7 +4605,7 @@
         <v>370</v>
       </c>
       <c r="B322" s="1">
-        <v>-3.5</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4609,7 +4613,7 @@
         <v>371</v>
       </c>
       <c r="B323" s="1">
-        <v>-9.5</v>
+        <v>-8.3000000000000007</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4617,7 +4621,7 @@
         <v>372</v>
       </c>
       <c r="B324" s="1">
-        <v>-1.3</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4625,7 +4629,7 @@
         <v>373</v>
       </c>
       <c r="B325" s="1">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4633,7 +4637,7 @@
         <v>374</v>
       </c>
       <c r="B326" s="1">
-        <v>-3.4</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4641,7 +4645,7 @@
         <v>375</v>
       </c>
       <c r="B327" s="1">
-        <v>-0.1</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4649,7 +4653,7 @@
         <v>376</v>
       </c>
       <c r="B328" s="1">
-        <v>-4</v>
+        <v>-4.5</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4657,7 +4661,7 @@
         <v>377</v>
       </c>
       <c r="B329" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4665,7 +4669,7 @@
         <v>378</v>
       </c>
       <c r="B330" s="1">
-        <v>-2.1</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4673,7 +4677,7 @@
         <v>379</v>
       </c>
       <c r="B331" s="1">
-        <v>-6.4</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -4681,7 +4685,7 @@
         <v>380</v>
       </c>
       <c r="B332" s="1">
-        <v>-5.7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4689,7 +4693,7 @@
         <v>381</v>
       </c>
       <c r="B333" s="1">
-        <v>-3.7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4697,7 +4701,7 @@
         <v>382</v>
       </c>
       <c r="B334" s="1">
-        <v>-8</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4705,7 +4709,7 @@
         <v>383</v>
       </c>
       <c r="B335" s="1">
-        <v>-13.3</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4713,7 +4717,7 @@
         <v>384</v>
       </c>
       <c r="B336" s="1">
-        <v>-7.4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4721,7 +4725,7 @@
         <v>385</v>
       </c>
       <c r="B337" s="1">
-        <v>-10.4</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -4729,7 +4733,7 @@
         <v>386</v>
       </c>
       <c r="B338" s="1">
-        <v>-11</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4737,7 +4741,7 @@
         <v>387</v>
       </c>
       <c r="B339" s="1">
-        <v>-11.4</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4745,7 +4749,7 @@
         <v>388</v>
       </c>
       <c r="B340" s="1">
-        <v>-12.1</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4753,7 +4757,7 @@
         <v>389</v>
       </c>
       <c r="B341" s="1">
-        <v>-13.7</v>
+        <v>-14.4</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4761,7 +4765,7 @@
         <v>390</v>
       </c>
       <c r="B342" s="1">
-        <v>-13.6</v>
+        <v>-14.2</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -4777,7 +4781,7 @@
         <v>392</v>
       </c>
       <c r="B344" s="1">
-        <v>-12.8</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4785,7 +4789,7 @@
         <v>393</v>
       </c>
       <c r="B345" s="1">
-        <v>-11.8</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4793,7 +4797,7 @@
         <v>394</v>
       </c>
       <c r="B346" s="1">
-        <v>-17.3</v>
+        <v>-16.100000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4801,7 +4805,7 @@
         <v>395</v>
       </c>
       <c r="B347" s="1">
-        <v>-18.2</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4809,7 +4813,7 @@
         <v>396</v>
       </c>
       <c r="B348" s="1">
-        <v>-17.7</v>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4817,7 +4821,7 @@
         <v>397</v>
       </c>
       <c r="B349" s="1">
-        <v>-17.8</v>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -4825,7 +4829,7 @@
         <v>398</v>
       </c>
       <c r="B350" s="1">
-        <v>-20.100000000000001</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -4833,7 +4837,7 @@
         <v>399</v>
       </c>
       <c r="B351" s="1">
-        <v>-19.3</v>
+        <v>-20.3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4841,7 +4845,7 @@
         <v>400</v>
       </c>
       <c r="B352" s="1">
-        <v>-17.399999999999999</v>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4849,7 +4853,7 @@
         <v>401</v>
       </c>
       <c r="B353" s="1">
-        <v>-18.2</v>
+        <v>-19.3</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -4857,7 +4861,7 @@
         <v>402</v>
       </c>
       <c r="B354" s="1">
-        <v>-26.1</v>
+        <v>-26.9</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4865,7 +4869,7 @@
         <v>403</v>
       </c>
       <c r="B355" s="1">
-        <v>-44.3</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4873,7 +4877,7 @@
         <v>404</v>
       </c>
       <c r="B356" s="1">
-        <v>-62.4</v>
+        <v>-61.3</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4881,7 +4885,7 @@
         <v>405</v>
       </c>
       <c r="B357" s="1">
-        <v>-54.7</v>
+        <v>-53.3</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4889,7 +4893,7 @@
         <v>406</v>
       </c>
       <c r="B358" s="1">
-        <v>-51.9</v>
+        <v>-50.4</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -4897,7 +4901,15 @@
         <v>407</v>
       </c>
       <c r="B359" s="1">
-        <v>-45.6</v>
+        <v>-43.7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B360" s="1">
+        <v>-36.6</v>
       </c>
     </row>
   </sheetData>
